--- a/biology/Médecine/Philippe_Brenot/Philippe_Brenot.xlsx
+++ b/biology/Médecine/Philippe_Brenot/Philippe_Brenot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Brenot, né le 6 mai 1948 à Bordeaux, est un médecin psychiatre français, anthropologue, sexologue et éditeur.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Breno obtient un doctorat de sciences à l'université Bordeaux 1, en 1982, en soutenant une thèse intitulée « Évolution de l'asymétrie électro-corticale chez les primates »[1]. Il est sexologue, directeur des enseignements de sexologie et de sexualité humaine à l'université Paris Descartes[2].
-Il préside l'association Observatoire international du couple[3]. Ses recherches, théoriques et cliniques, concernent les spécificités anthropologiques de la sexualité humaine et du couple. Il est membre expert de l'Association interdisciplinaire post-universitaire de sexologie (AIUS)[4] et du comité scientifique des Assises de sexologie et de santé sexuelle[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Breno obtient un doctorat de sciences à l'université Bordeaux 1, en 1982, en soutenant une thèse intitulée « Évolution de l'asymétrie électro-corticale chez les primates ». Il est sexologue, directeur des enseignements de sexologie et de sexualité humaine à l'université Paris Descartes.
+Il préside l'association Observatoire international du couple. Ses recherches, théoriques et cliniques, concernent les spécificités anthropologiques de la sexualité humaine et du couple. Il est membre expert de l'Association interdisciplinaire post-universitaire de sexologie (AIUS) et du comité scientifique des Assises de sexologie et de santé sexuelle,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Éditions et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Brenot est directeur littéraire aux éditions L'Esprit du temps.
-Il a présenté et établi, aux éditions Gallimard, dans les Cahiers de la NRF, l'édition du premier roman de Romain Gary, resté inédit jusqu'en 2014, Le Vin des morts. Ce roman de jeunesse de Roman Kacew (nom de naissance de Romain Gary) est une œuvre maîtresse pour la compréhension de l'homme Gary et un réservoir pour l'œuvre. De nombreux passages du Vin des morts, écrit en 1937, se retrouvant de façon quasi littérale sous la plume d'Émile Ajar en 1974[7].
+Il a présenté et établi, aux éditions Gallimard, dans les Cahiers de la NRF, l'édition du premier roman de Romain Gary, resté inédit jusqu'en 2014, Le Vin des morts. Ce roman de jeunesse de Roman Kacew (nom de naissance de Romain Gary) est une œuvre maîtresse pour la compréhension de l'homme Gary et un réservoir pour l'œuvre. De nombreux passages du Vin des morts, écrit en 1937, se retrouvant de façon quasi littérale sous la plume d'Émile Ajar en 1974.
 Il est membre du jury du prix Sade.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Origines , L’Harmattan, 1988
 Les mots du corps, L'Esprit du Temps, 1992
@@ -593,11 +611,11 @@
 Qu'est-ce que la sexologie ? , Payot, 2012
 Les Femmes, le sexe et l'amour , Ed. Les Arènes, 2012
 Nouvel éloge de la masturbation , L'Esprit du Temps, 2013
-Un jour mon Prince…, Les Arènes, 2014[8]
+Un jour mon Prince…, Les Arènes, 2014
 Présentation du Vin des Morts de Romain Gary, pp. 9-50, Gallimard, 2014
 Romain Gary, de Kacew à Ajar, L'Esprit du Temps, 2014
 Homo ou hétéro, est-ce un choix ?, L'Esprit du Temps, 2015
-Lettres d'amour, secret des amants, L'Esprit du Temps, 2016[9]
+Lettres d'amour, secret des amants, L'Esprit du Temps, 2016
 Sex Story (avec Laetitia Coryn), Les Arènes BD, 2016
 Une Histoire du Sexe (avec Laetitia Coryn), Les Arènes BD, 2017
 Pseudocryme, récit, L'Esprit du Temps, 2017
